--- a/interview_code_template.xlsx
+++ b/interview_code_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isagaidak/Desktop/interviews_encoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306510B3-D668-044D-95A4-01BE3BA08CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21013879-B2A7-A04E-A3B0-DB0C93FE294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13740" yWindow="760" windowWidth="20820" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Код интервью</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Длительность</t>
+  </si>
+  <si>
+    <t>Код 27: Фидбек</t>
+  </si>
+  <si>
+    <t>Как вам интервью?</t>
   </si>
 </sst>
 </file>
@@ -349,16 +355,16 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,8 +586,8 @@
   <dimension ref="A1:AR4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:XFD3"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -613,22 +619,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="56" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -709,7 +715,9 @@
       <c r="AF1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="1"/>
+      <c r="AG1" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
@@ -723,12 +731,12 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:44" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
@@ -807,7 +815,9 @@
       <c r="AF2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="14"/>
+      <c r="AG2" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
